--- a/data/trans_dic/P14B35-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14B35-Estudios-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.00189902335631968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.006726162718587636</v>
+        <v>0.006726162718587638</v>
       </c>
     </row>
     <row r="5">
@@ -613,13 +613,13 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.0007315774834462358</v>
+        <v>0.0007299140212885966</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00271492398697539</v>
+        <v>0.002891136074521671</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.006069103307892402</v>
+        <v>0.0061593900115796</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.005783925597693969</v>
+        <v>0.006617945232945879</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01360438660503121</v>
+        <v>0.01349070204084716</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0.006314563924895032</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03387670312648109</v>
+        <v>0.03387670312648108</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.01381461549549023</v>
+        <v>0.01422262341210382</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003600146586640971</v>
+        <v>0.003649052923942522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02596531010598729</v>
+        <v>0.02647980176399281</v>
       </c>
     </row>
     <row r="9">
@@ -691,13 +691,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.02812044776711761</v>
+        <v>0.02764554473880423</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01093863536965432</v>
+        <v>0.01040802474909727</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04286831642985838</v>
+        <v>0.04410395696596128</v>
       </c>
     </row>
     <row r="10">
@@ -721,7 +721,7 @@
         <v>0.005376283382577424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05656921690821517</v>
+        <v>0.05656921690821518</v>
       </c>
     </row>
     <row r="11">
@@ -733,13 +733,13 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.004302721462199496</v>
+        <v>0.005658382329914583</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001655680253440264</v>
+        <v>0.001663885797122199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04178090454081761</v>
+        <v>0.04093334526148941</v>
       </c>
     </row>
     <row r="12">
@@ -751,13 +751,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02843402830803505</v>
+        <v>0.03006448707467498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01361819662586833</v>
+        <v>0.01434185196306401</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07630844828588171</v>
+        <v>0.07402725238282312</v>
       </c>
     </row>
     <row r="13">
@@ -793,13 +793,13 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.009002388381627461</v>
+        <v>0.009144770717358639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002948221146272603</v>
+        <v>0.003031639977036675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02625992677591612</v>
+        <v>0.02678203987935756</v>
       </c>
     </row>
     <row r="15">
@@ -811,13 +811,13 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.01649066992400211</v>
+        <v>0.01653106940437495</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.007450328942604281</v>
+        <v>0.007643202126686722</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03898394390214149</v>
+        <v>0.03914930572962565</v>
       </c>
     </row>
     <row r="16">
@@ -966,13 +966,13 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2228</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="7">
@@ -984,13 +984,13 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>8119</v>
+        <v>8240</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5753</v>
+        <v>6583</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11165</v>
+        <v>11072</v>
       </c>
     </row>
     <row r="8">
@@ -1046,13 +1046,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>24225</v>
+        <v>24941</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7158</v>
+        <v>7255</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>56241</v>
+        <v>57355</v>
       </c>
     </row>
     <row r="11">
@@ -1064,13 +1064,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>49312</v>
+        <v>48479</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21749</v>
+        <v>20694</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>92853</v>
+        <v>95529</v>
       </c>
     </row>
     <row r="12">
@@ -1126,13 +1126,13 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>1973</v>
+        <v>2595</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>30478</v>
+        <v>29860</v>
       </c>
     </row>
     <row r="15">
@@ -1144,13 +1144,13 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>13041</v>
+        <v>13789</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7478</v>
+        <v>7876</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>55665</v>
+        <v>54001</v>
       </c>
     </row>
     <row r="16">
@@ -1206,13 +1206,13 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>31959</v>
+        <v>32464</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10413</v>
+        <v>10708</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>97587</v>
+        <v>99527</v>
       </c>
     </row>
     <row r="19">
@@ -1224,13 +1224,13 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>58542</v>
+        <v>58686</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26315</v>
+        <v>26997</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>144871</v>
+        <v>145486</v>
       </c>
     </row>
     <row r="20">
